--- a/2016년 재료비 6월/미술 재료비.xlsx
+++ b/2016년 재료비 6월/미술 재료비.xlsx
@@ -632,7 +632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>

--- a/2016년 재료비 6월/미술 재료비.xlsx
+++ b/2016년 재료비 6월/미술 재료비.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="555" windowWidth="20175" windowHeight="13500"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -316,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -325,9 +325,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -632,40 +629,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8" style="5" customWidth="1"/>
-    <col min="4" max="4" width="7" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -685,7 +682,7 @@
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>10000</v>
       </c>
       <c r="G2" s="2"/>
@@ -706,7 +703,7 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>10000</v>
       </c>
       <c r="G3" s="2"/>
@@ -727,7 +724,7 @@
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>10000</v>
       </c>
       <c r="G4" s="2"/>
@@ -748,7 +745,7 @@
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>10000</v>
       </c>
       <c r="G5" s="2"/>
@@ -769,7 +766,7 @@
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>10000</v>
       </c>
       <c r="G6" s="2"/>
@@ -790,7 +787,7 @@
       <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>10000</v>
       </c>
       <c r="G7" s="2"/>
@@ -811,7 +808,7 @@
       <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>10000</v>
       </c>
       <c r="G8" s="2"/>
@@ -832,7 +829,7 @@
       <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>10000</v>
       </c>
       <c r="G9" s="2"/>
@@ -853,7 +850,7 @@
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>10000</v>
       </c>
       <c r="G10" s="2"/>
@@ -874,7 +871,7 @@
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>10000</v>
       </c>
       <c r="G11" s="2"/>
@@ -895,7 +892,7 @@
       <c r="E12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>10000</v>
       </c>
       <c r="G12" s="2"/>
@@ -916,7 +913,7 @@
       <c r="E13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>10000</v>
       </c>
       <c r="G13" s="2"/>
@@ -937,7 +934,7 @@
       <c r="E14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>10000</v>
       </c>
       <c r="G14" s="2"/>
@@ -958,7 +955,7 @@
       <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>10000</v>
       </c>
       <c r="G15" s="2"/>
@@ -979,7 +976,7 @@
       <c r="E16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>10000</v>
       </c>
       <c r="G16" s="2"/>
@@ -1000,7 +997,7 @@
       <c r="E17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>10000</v>
       </c>
       <c r="G17" s="2"/>
@@ -1021,7 +1018,7 @@
       <c r="E18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>10000</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -1044,7 +1041,7 @@
       <c r="E19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>10000</v>
       </c>
       <c r="G19" s="2"/>
@@ -1065,7 +1062,7 @@
       <c r="E20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>10000</v>
       </c>
       <c r="G20" s="2"/>
@@ -1086,7 +1083,7 @@
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>10000</v>
       </c>
       <c r="G21" s="2"/>
@@ -1107,7 +1104,7 @@
       <c r="E22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>10000</v>
       </c>
       <c r="G22" s="2"/>
@@ -1128,7 +1125,7 @@
       <c r="E23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>10000</v>
       </c>
       <c r="G23" s="2"/>
@@ -1149,7 +1146,7 @@
       <c r="E24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>10000</v>
       </c>
       <c r="G24" s="2"/>
@@ -1170,7 +1167,7 @@
       <c r="E25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>10000</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -1193,7 +1190,7 @@
       <c r="E26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>10000</v>
       </c>
       <c r="G26" s="2"/>
@@ -1214,7 +1211,7 @@
       <c r="E27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>10000</v>
       </c>
       <c r="G27" s="2"/>
@@ -1235,7 +1232,7 @@
       <c r="E28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>10000</v>
       </c>
       <c r="G28" s="2"/>
@@ -1256,7 +1253,7 @@
       <c r="E29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>10000</v>
       </c>
       <c r="G29" s="2"/>
@@ -1277,7 +1274,7 @@
       <c r="E30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>10000</v>
       </c>
       <c r="G30" s="2"/>
@@ -1298,7 +1295,7 @@
       <c r="E31" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>10000</v>
       </c>
       <c r="G31" s="2"/>
@@ -1319,7 +1316,7 @@
       <c r="E32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>10000</v>
       </c>
       <c r="G32" s="2"/>
@@ -1340,7 +1337,7 @@
       <c r="E33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>10000</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -1363,7 +1360,7 @@
       <c r="E34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>10000</v>
       </c>
       <c r="G34" s="2"/>
@@ -1384,7 +1381,7 @@
       <c r="E35" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>10000</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -1407,7 +1404,7 @@
       <c r="E36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>10000</v>
       </c>
       <c r="G36" s="2"/>
@@ -1428,7 +1425,7 @@
       <c r="E37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <v>10000</v>
       </c>
       <c r="G37" s="2"/>
@@ -1449,7 +1446,7 @@
       <c r="E38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <v>10000</v>
       </c>
       <c r="G38" s="2"/>
@@ -1470,7 +1467,7 @@
       <c r="E39" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <v>10000</v>
       </c>
       <c r="G39" s="2"/>
@@ -1491,7 +1488,7 @@
       <c r="E40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <v>10000</v>
       </c>
       <c r="G40" s="2"/>
@@ -1512,7 +1509,7 @@
       <c r="E41" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <v>10000</v>
       </c>
       <c r="G41" s="2"/>
@@ -1533,7 +1530,7 @@
       <c r="E42" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <v>10000</v>
       </c>
       <c r="G42" s="2"/>
@@ -1554,7 +1551,7 @@
       <c r="E43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <v>10000</v>
       </c>
       <c r="G43" s="2"/>
@@ -1575,7 +1572,7 @@
       <c r="E44" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <v>10000</v>
       </c>
       <c r="G44" s="2" t="s">
@@ -1598,7 +1595,7 @@
       <c r="E45" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <v>10000</v>
       </c>
       <c r="G45" s="2"/>
@@ -1619,7 +1616,7 @@
       <c r="E46" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="2">
         <v>10000</v>
       </c>
       <c r="G46" s="2"/>
@@ -1640,7 +1637,7 @@
       <c r="E47" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="2">
         <v>10000</v>
       </c>
       <c r="G47" s="2"/>
@@ -1661,7 +1658,7 @@
       <c r="E48" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="2">
         <v>10000</v>
       </c>
       <c r="G48" s="2"/>
@@ -1682,7 +1679,7 @@
       <c r="E49" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="2">
         <v>10000</v>
       </c>
       <c r="G49" s="2" t="s">
@@ -1705,7 +1702,7 @@
       <c r="E50" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="2">
         <v>10000</v>
       </c>
       <c r="G50" s="2"/>
@@ -1726,7 +1723,7 @@
       <c r="E51" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="2">
         <v>10000</v>
       </c>
       <c r="G51" s="2"/>
@@ -1747,7 +1744,7 @@
       <c r="E52" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="2">
         <v>10000</v>
       </c>
       <c r="G52" s="2"/>
@@ -1768,7 +1765,7 @@
       <c r="E53" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="2">
         <v>10000</v>
       </c>
       <c r="G53" s="2"/>
@@ -1789,7 +1786,7 @@
       <c r="E54" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="2">
         <v>10000</v>
       </c>
       <c r="G54" s="2" t="s">
@@ -1812,16 +1809,13 @@
       <c r="E55" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="2">
         <v>10000</v>
       </c>
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="F56">
-        <f>SUM(F2:F55)</f>
-        <v>540000</v>
-      </c>
+      <c r="F56"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
